--- a/topic_split/topic_14.xlsx
+++ b/topic_split/topic_14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>issue</t>
   </si>
@@ -22,52 +22,50 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[1.94342326e-308 1.31444977e-307 2.34803687e-308 1.03910926e-307
- 1.83449996e-308 2.07707394e-308 3.56409887e-308 2.60772285e-308
- 2.80889176e-308 2.91136832e-308 2.70027673e-308 2.59923229e-308
- 3.52495400e-308 1.00000000e+000 2.91233711e-308 2.68024287e-308
- 2.21276615e-308 3.02326124e-308 2.80151233e-308 3.22366555e-308
- 2.70629383e-308 2.56952740e-308 2.66791914e-308 3.13321946e-308
- 3.13609552e-308]</t>
-  </si>
-  <si>
-    <t>[1.89586760e-308 1.51012415e-307 2.28242625e-308 1.14358276e-307
- 1.78670938e-308 2.01360029e-308 3.37458854e-308 2.50529672e-308
- 2.70440726e-308 2.81412936e-308 2.59230672e-308 2.51538993e-308
- 3.34415751e-308 1.00000000e+000 2.78416120e-308 2.59109271e-308
- 2.14351759e-308 2.88675047e-308 2.69731267e-308 3.08696709e-308
- 2.60671044e-308 2.47740104e-308 2.56650776e-308 3.01519839e-308
- 3.00514089e-308]</t>
-  </si>
-  <si>
-    <t>[1.85804356e-308 1.61782609e-307 2.22684318e-308 1.38377134e-307
- 1.74333666e-308 1.97373426e-308 3.26182583e-308 2.45777866e-308
- 2.61534869e-308 2.68485528e-308 2.50953666e-308 2.42193030e-308
- 3.24647730e-308 1.00000000e+000 2.73583506e-308 2.47493031e-308
- 2.09499956e-308 2.84724223e-308 2.57575940e-308 2.94331418e-308
- 2.53670937e-308 2.39151924e-308 2.50997129e-308 2.88144283e-308
- 2.86308558e-308]</t>
-  </si>
-  <si>
-    <t>[1.94794237e-308 1.35517162e-307 2.27727212e-308 1.03227359e-307
- 1.81502569e-308 2.07058054e-308 3.55801402e-308 2.59469545e-308
- 2.74284453e-308 2.89238386e-308 2.67283739e-308 2.53087768e-308
- 3.44954433e-308 1.00000000e+000 2.92003787e-308 2.65752153e-308
- 2.21052680e-308 3.05058147e-308 2.76828032e-308 3.19605002e-308
- 2.63600500e-308 2.55278187e-308 2.61437947e-308 3.11320442e-308
- 3.05211277e-308]</t>
-  </si>
-  <si>
-    <t>[1.78582270e-308 2.20580026e-307 2.12868542e-308 1.91419527e-307
- 1.66715859e-308 1.87636681e-308 3.00218548e-308 2.30609397e-308
- 2.46694611e-308 2.56333400e-308 2.35824092e-308 2.30469066e-308
- 2.99541246e-308 1.00000000e+000 2.55150147e-308 2.35858816e-308
- 1.99027747e-308 2.65256673e-308 2.43492251e-308 2.76718851e-308
- 2.39136860e-308 2.26019144e-308 2.35619492e-308 2.73314906e-308
- 2.69304093e-308]</t>
+    <t xml:space="preserve">Country Pages: Improve messaging for `Data not available` cases
+## Ticket description
+- Setting up this ticket to discuss on improving the messaging in cases where the sections do not have any data. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Select rating` dropdown in Assessment is shifted to left side
+## Details
+- The `Select rating` dropdowns in the PER assessment have been shifted to the left side. They should be on the right. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minor fixes: June 26, 2024
+## Description
+- Reported by Justin in GO Risk Watch All Stars channel 
+## TODO 
+- [ ] default month when you land on the Country Risk Watch page goes to January rather than the current month
+- [ ] we don't seem to be following the rounding rules consistently when showing the numbers in the tables. Thus, for Guatemala, the annual risk metrics look like this: 
+   - [ ] ![Image](https://github.com/IFRCGo/go-web-app/assets/72339626/f9d068a9-8833-4fde-9d1a-96d4f9ce86f0)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show cone of uncertainty, path, and affected areas for GDACS, WFP ADAM and PDC
+## Task background 
+We have the data related to the cone of uncertainty, path, and affected areas for GDACs, PDC, and WFP ADAM, but currently, we are not showing them in the Risk Module in the GO platform. 
+## Behavioral and implementation details
+- @puranban and @ranjan to add
+### Development tickets 
+- [x] IFRCGo/go-risk-module-api#9
+- [x] IFRCGo/go-risk-module-api#10
+- [x] IFRCGo/go-web-app#1295
+- [x] IFRCGo/go-web-app#1296
+- [x] #1297
+- [x] #1345
+- [x] #1346
+- [x] #1347
+- [x] #1348
+- [x] #1349
+### Review fixes (based on Justin and Mariam's review on 30.10.2024):
+- [x] Map legend: Delete the word "Map" from "Map Sources" so that it just reads: "Sources"
+- [x] In the pop-up box for GDACS storms, where it currently says "Source: [JTWC, or NOAA or other]" let's replace "Source:" with "Forecast provider:"
+- [x] In the pop-up box for both PDC and for GDACS, replace "Exposed area" with "Exposed area to tropical storm or cyclone strength wind"
+- [x] In the pop-up box for both PDC and GDACS where it says "Severity" : 1) first change the text to "PDC Severity" or "GDACS Severity"; and 2) add a tool tip with a link to the source
+- [ ] In the colouring of the exposed area, does this apply to future exposure, past exposure or both? At the moment, it's unclear and we need to make it clear whether its one, the other or both. 
+- [ ] For storm position (at a specific date and time) as denoted by dots: this is currently not working for either the PDC or GDACS events -- nothing happens when you click on the dots
+</t>
   </si>
 </sst>
 </file>
@@ -425,76 +423,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>15</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>16</v>
       </c>
       <c r="B3">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>21</v>
       </c>
       <c r="B4">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>26</v>
       </c>
       <c r="B5">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>61</v>
-      </c>
-      <c r="B6">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
